--- a/output/xlsx/UC003 - Cancelar Solicitação de Diária--GTP-.xlsx
+++ b/output/xlsx/UC003 - Cancelar Solicitação de Diária--GTP-.xlsx
@@ -122,10 +122,10 @@
     <t>TC3</t>
   </si>
   <si>
+    <t>SYSTEM Identifica que a solicitação de diária está em situação diferente de 'SOLICITADA PARA EMPENHO' ou 'SOLICITADA PARA PRESTAÇÃO DE CONTAS'.  Impede o cancelamento e exibe mensagem de erro (MSG205 - Solcitação de diária não pode ser cancelada) para o usuário.</t>
+  </si>
+  <si>
     <t>TC4</t>
-  </si>
-  <si>
-    <t>SYSTEM Identifica que a solicitação de diária está em situação diferente de 'SOLICITADA PARA EMPENHO' ou 'SOLICITADA PARA PRESTAÇÃO DE CONTAS'.  Impede o cancelamento e exibe mensagem de erro (MSG205 - Solcitação de diária não pode ser cancelada) para o usuário.</t>
   </si>
   <si>
     <t>TC5</t>
@@ -749,135 +749,135 @@
         <v>1.0</v>
       </c>
       <c r="B27" t="s" s="7">
+        <v>33</v>
+      </c>
+      <c r="C27" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D27" t="s" s="7">
+        <v>36</v>
+      </c>
+      <c r="E27" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F27" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28"/>
+    <row r="29"/>
+    <row r="30">
+      <c r="A30" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B30" t="s" s="4">
+        <v>37</v>
+      </c>
+      <c r="C30" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="D30" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E30" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="F30" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="B31" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C31" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D31" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E31" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="F31" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B32" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="C32" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D32" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E32" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F32" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="B33" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="C33" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="D33" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="E33" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="F33" t="s" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="B34" t="s" s="7">
         <v>26</v>
       </c>
-      <c r="C27" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D27" t="s" s="7">
+      <c r="C34" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D34" t="s" s="7">
         <v>27</v>
       </c>
-      <c r="E27" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F27" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="B28" t="s" s="7">
-        <v>28</v>
-      </c>
-      <c r="C28" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D28" t="s" s="7">
-        <v>34</v>
-      </c>
-      <c r="E28" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F28" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29"/>
-    <row r="30"/>
-    <row r="31">
-      <c r="A31" t="s" s="4">
-        <v>12</v>
-      </c>
-      <c r="B31" t="s" s="4">
-        <v>36</v>
-      </c>
-      <c r="C31" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="D31" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E31" t="s" s="4">
-        <v>15</v>
-      </c>
-      <c r="F31" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s" s="9">
-        <v>16</v>
-      </c>
-      <c r="B32" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C32" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D32" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E32" t="s" s="9">
-        <v>17</v>
-      </c>
-      <c r="F32" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="B33" t="s" s="8">
-        <v>19</v>
-      </c>
-      <c r="C33" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D33" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E33" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F33" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="5">
-        <v>20</v>
-      </c>
-      <c r="B34" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="C34" t="s" s="5">
-        <v>22</v>
-      </c>
-      <c r="D34" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="E34" t="s" s="5">
-        <v>24</v>
-      </c>
-      <c r="F34" t="s" s="5">
-        <v>25</v>
+      <c r="E34" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F34" t="s" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n" s="10">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B35" t="s" s="7">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C35" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D35" t="s" s="7">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E35" t="s" s="6">
         <v>2</v>
@@ -1038,8 +1038,8 @@
     <mergeCell ref="B17:F17"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="B25:F25"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:F32"/>
     <mergeCell ref="B39:D39"/>
     <mergeCell ref="B40:F40"/>
     <mergeCell ref="B44:F44"/>

--- a/output/xlsx/UC003 - Cancelar Solicitação de Diária--GTP-.xlsx
+++ b/output/xlsx/UC003 - Cancelar Solicitação de Diária--GTP-.xlsx
@@ -32,7 +32,7 @@
     <t xml:space="preserve">Version: </t>
   </si>
   <si>
-    <t>0.1</t>
+    <t>1.0</t>
   </si>
   <si>
     <t>Suite Type:</t>
@@ -122,10 +122,10 @@
     <t>TC3</t>
   </si>
   <si>
+    <t>TC4</t>
+  </si>
+  <si>
     <t>SYSTEM Identifica que a solicitação de diária está em situação diferente de 'SOLICITADA PARA EMPENHO' ou 'SOLICITADA PARA PRESTAÇÃO DE CONTAS'.  Impede o cancelamento e exibe mensagem de erro (MSG205 - Solcitação de diária não pode ser cancelada) para o usuário.</t>
-  </si>
-  <si>
-    <t>TC4</t>
   </si>
   <si>
     <t>TC5</t>
@@ -749,135 +749,135 @@
         <v>1.0</v>
       </c>
       <c r="B27" t="s" s="7">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D27" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="E27" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F27" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="B28" t="s" s="7">
+        <v>28</v>
+      </c>
+      <c r="C28" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D28" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="E28" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F28" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29"/>
+    <row r="30"/>
+    <row r="31">
+      <c r="A31" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B31" t="s" s="4">
         <v>36</v>
       </c>
-      <c r="E27" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F27" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28"/>
-    <row r="29"/>
-    <row r="30">
-      <c r="A30" t="s" s="4">
-        <v>12</v>
-      </c>
-      <c r="B30" t="s" s="4">
-        <v>37</v>
-      </c>
-      <c r="C30" t="s" s="4">
+      <c r="C31" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="D30" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E30" t="s" s="4">
+      <c r="D31" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E31" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="F30" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="9">
+      <c r="F31" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="9">
         <v>16</v>
       </c>
-      <c r="B31" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C31" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D31" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E31" t="s" s="9">
+      <c r="B32" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C32" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D32" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E32" t="s" s="9">
         <v>17</v>
       </c>
-      <c r="F31" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s" s="8">
+      <c r="F32" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B32" t="s" s="8">
+      <c r="B33" t="s" s="8">
         <v>19</v>
       </c>
-      <c r="C32" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D32" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E32" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F32" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="5">
+      <c r="C33" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D33" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E33" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F33" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="B33" t="s" s="5">
+      <c r="B34" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="C33" t="s" s="5">
+      <c r="C34" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="D33" t="s" s="5">
+      <c r="D34" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="E33" t="s" s="5">
+      <c r="E34" t="s" s="5">
         <v>24</v>
       </c>
-      <c r="F33" t="s" s="5">
+      <c r="F34" t="s" s="5">
         <v>25</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B34" t="s" s="7">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D34" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="E34" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F34" t="s" s="6">
-        <v>2</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n" s="10">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="B35" t="s" s="7">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C35" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D35" t="s" s="7">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E35" t="s" s="6">
         <v>2</v>
@@ -1038,8 +1038,8 @@
     <mergeCell ref="B17:F17"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="B25:F25"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:F33"/>
     <mergeCell ref="B39:D39"/>
     <mergeCell ref="B40:F40"/>
     <mergeCell ref="B44:F44"/>

--- a/output/xlsx/UC003 - Cancelar Solicitação de Diária--GTP-.xlsx
+++ b/output/xlsx/UC003 - Cancelar Solicitação de Diária--GTP-.xlsx
@@ -122,10 +122,10 @@
     <t>TC3</t>
   </si>
   <si>
+    <t>TC4</t>
+  </si>
+  <si>
     <t>SYSTEM Identifica que a solicitação de diária está em situação diferente de 'SOLICITADA PARA EMPENHO' ou 'SOLICITADA PARA PRESTAÇÃO DE CONTAS'.  Impede o cancelamento e exibe mensagem de erro (MSG205 - Solcitação de diária não pode ser cancelada) para o usuário.</t>
-  </si>
-  <si>
-    <t>TC4</t>
   </si>
   <si>
     <t>TC5</t>
@@ -749,135 +749,135 @@
         <v>1.0</v>
       </c>
       <c r="B27" t="s" s="7">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D27" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="E27" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F27" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="B28" t="s" s="7">
+        <v>28</v>
+      </c>
+      <c r="C28" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D28" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="E28" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F28" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29"/>
+    <row r="30"/>
+    <row r="31">
+      <c r="A31" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B31" t="s" s="4">
         <v>36</v>
       </c>
-      <c r="E27" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F27" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28"/>
-    <row r="29"/>
-    <row r="30">
-      <c r="A30" t="s" s="4">
-        <v>12</v>
-      </c>
-      <c r="B30" t="s" s="4">
-        <v>37</v>
-      </c>
-      <c r="C30" t="s" s="4">
+      <c r="C31" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="D30" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E30" t="s" s="4">
+      <c r="D31" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E31" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="F30" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="9">
+      <c r="F31" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="9">
         <v>16</v>
       </c>
-      <c r="B31" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C31" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D31" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E31" t="s" s="9">
+      <c r="B32" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C32" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D32" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E32" t="s" s="9">
         <v>17</v>
       </c>
-      <c r="F31" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s" s="8">
+      <c r="F32" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B32" t="s" s="8">
+      <c r="B33" t="s" s="8">
         <v>19</v>
       </c>
-      <c r="C32" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D32" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E32" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F32" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="5">
+      <c r="C33" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D33" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E33" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F33" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="B33" t="s" s="5">
+      <c r="B34" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="C33" t="s" s="5">
+      <c r="C34" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="D33" t="s" s="5">
+      <c r="D34" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="E33" t="s" s="5">
+      <c r="E34" t="s" s="5">
         <v>24</v>
       </c>
-      <c r="F33" t="s" s="5">
+      <c r="F34" t="s" s="5">
         <v>25</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B34" t="s" s="7">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D34" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="E34" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F34" t="s" s="6">
-        <v>2</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n" s="10">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="B35" t="s" s="7">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C35" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D35" t="s" s="7">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E35" t="s" s="6">
         <v>2</v>
@@ -1038,8 +1038,8 @@
     <mergeCell ref="B17:F17"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="B25:F25"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:F33"/>
     <mergeCell ref="B39:D39"/>
     <mergeCell ref="B40:F40"/>
     <mergeCell ref="B44:F44"/>

--- a/output/xlsx/UC003 - Cancelar Solicitação de Diária--GTP-.xlsx
+++ b/output/xlsx/UC003 - Cancelar Solicitação de Diária--GTP-.xlsx
@@ -32,7 +32,7 @@
     <t xml:space="preserve">Version: </t>
   </si>
   <si>
-    <t>1.0</t>
+    <t>1.2.5</t>
   </si>
   <si>
     <t>Suite Type:</t>
@@ -71,7 +71,7 @@
     <t xml:space="preserve">Precondition: </t>
   </si>
   <si>
-    <t>O usuario devidamente autenticado e na tela inicial de cancelar diárias</t>
+    <t>O usuário devidamente autenticado e na tela inicial de cancelar diárias.</t>
   </si>
   <si>
     <t>#</t>
@@ -95,7 +95,7 @@
     <t>Chefe Não informa o motivo do cancelamento.</t>
   </si>
   <si>
-    <t>SYSTEM Exibe a mensagem (MSG102 - Confirmar cancelamento)</t>
+    <t>SYSTEM Exibe a mensagem (MSG102 - Confirmar cancelamento).</t>
   </si>
   <si>
     <t>Chefe Clica em confirmar.</t>
@@ -116,16 +116,16 @@
     <t>Chefe Informa o motivo do cancelamento.</t>
   </si>
   <si>
-    <t>SYSTEM Identifica que o usuário não informou uma justificativa para o cancelamento. Não efetiva o cancelamento e exibe mensagem de erro (MSG217 - Necessário informar uma justificativa para o cancelamento de solicitações	) para o usuário.</t>
+    <t>SYSTEM Identifica que o usuário não informou uma justificativa para o cancelamento. Não efetiva o cancelamento e exibe mensagem de erro (MSG217 - Necessário informar uma justificativa para o cancelamento de solicitações) para o usuário.</t>
   </si>
   <si>
     <t>TC3</t>
   </si>
   <si>
-    <t>SYSTEM Identifica que a solicitação de diária está em situação diferente de 'SOLICITADA PARA EMPENHO' ou 'SOLICITADA PARA PRESTAÇÃO DE CONTAS'.  Impede o cancelamento e exibe mensagem de erro (MSG205 - Solcitação de diária não pode ser cancelada) para o usuário.</t>
-  </si>
-  <si>
     <t>TC4</t>
+  </si>
+  <si>
+    <t>SYSTEM Identifica que a solicitação de diária está em situação diferente de 'SOLICITADA PARA EMPENHO' ou 'SOLICITADA PARA PRESTAÇÃO DE CONTAS'.  Impede o cancelamento e exibe mensagem de erro (MSG205 - Solicitação de diária não pode ser cancelada) para o usuário.</t>
   </si>
   <si>
     <t>TC5</t>
@@ -749,135 +749,135 @@
         <v>1.0</v>
       </c>
       <c r="B27" t="s" s="7">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D27" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="E27" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F27" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="B28" t="s" s="7">
+        <v>28</v>
+      </c>
+      <c r="C28" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D28" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="E28" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F28" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29"/>
+    <row r="30"/>
+    <row r="31">
+      <c r="A31" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B31" t="s" s="4">
         <v>36</v>
       </c>
-      <c r="E27" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F27" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28"/>
-    <row r="29"/>
-    <row r="30">
-      <c r="A30" t="s" s="4">
-        <v>12</v>
-      </c>
-      <c r="B30" t="s" s="4">
-        <v>37</v>
-      </c>
-      <c r="C30" t="s" s="4">
+      <c r="C31" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="D30" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E30" t="s" s="4">
+      <c r="D31" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E31" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="F30" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="9">
+      <c r="F31" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="9">
         <v>16</v>
       </c>
-      <c r="B31" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C31" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D31" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E31" t="s" s="9">
+      <c r="B32" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C32" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D32" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E32" t="s" s="9">
         <v>17</v>
       </c>
-      <c r="F31" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s" s="8">
+      <c r="F32" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B32" t="s" s="8">
+      <c r="B33" t="s" s="8">
         <v>19</v>
       </c>
-      <c r="C32" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D32" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E32" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F32" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="5">
+      <c r="C33" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D33" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E33" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F33" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="B33" t="s" s="5">
+      <c r="B34" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="C33" t="s" s="5">
+      <c r="C34" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="D33" t="s" s="5">
+      <c r="D34" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="E33" t="s" s="5">
+      <c r="E34" t="s" s="5">
         <v>24</v>
       </c>
-      <c r="F33" t="s" s="5">
+      <c r="F34" t="s" s="5">
         <v>25</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B34" t="s" s="7">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D34" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="E34" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F34" t="s" s="6">
-        <v>2</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n" s="10">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="B35" t="s" s="7">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C35" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D35" t="s" s="7">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E35" t="s" s="6">
         <v>2</v>
@@ -1038,8 +1038,8 @@
     <mergeCell ref="B17:F17"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="B25:F25"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:F33"/>
     <mergeCell ref="B39:D39"/>
     <mergeCell ref="B40:F40"/>
     <mergeCell ref="B44:F44"/>
